--- a/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joice\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7D7F44-1DB2-4742-AF16-0A530A5A5BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5204E4-A6CB-734F-9366-3465A62C4439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equivalências" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="471">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -1379,9 +1379,6 @@
     <t>Wheat</t>
   </si>
   <si>
-    <t xml:space="preserve">CBARA x IPS/GPS SNOMED-CT </t>
-  </si>
-  <si>
     <t>MS x SNOMED</t>
   </si>
   <si>
@@ -1403,12 +1400,6 @@
     <t>Copper (substance)</t>
   </si>
   <si>
-    <t>762952008 código correto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">792952008 - provável erro de digitação </t>
-  </si>
-  <si>
     <t>Oat (substance)</t>
   </si>
   <si>
@@ -1418,9 +1409,6 @@
     <t>Orange - fruit (substance)</t>
   </si>
   <si>
-    <t>O nome estava somente Orange</t>
-  </si>
-  <si>
     <t>Lime - fruit (substance)</t>
   </si>
   <si>
@@ -1440,13 +1428,31 @@
   </si>
   <si>
     <t>sct</t>
+  </si>
+  <si>
+    <t>Nome Organização Source</t>
+  </si>
+  <si>
+    <t>Nome Source Fonte</t>
+  </si>
+  <si>
+    <t>Nome Organização Target</t>
+  </si>
+  <si>
+    <t>Nome Source Target</t>
+  </si>
+  <si>
+    <t>SNOMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,14 +1463,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1507,6 +1505,22 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,42 +1570,42 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1607,7 +1621,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Opções"/>
@@ -1888,12 +1902,12 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1920,61 +1934,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="22.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="36.7265625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="27.54296875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="30.36328125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="17.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="22.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1983,7 +1995,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -2004,12 +2016,12 @@
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>164</v>
@@ -2018,7 +2030,7 @@
         <v>164</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E4" s="6">
         <v>288328004</v>
@@ -2033,12 +2045,12 @@
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>176</v>
@@ -2047,7 +2059,7 @@
         <v>176</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E5" s="6">
         <v>128488006</v>
@@ -2062,9 +2074,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>193</v>
@@ -2073,7 +2085,7 @@
         <v>193</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E6" s="6">
         <v>386936005</v>
@@ -2088,9 +2100,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>162</v>
@@ -2099,7 +2111,7 @@
         <v>162</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E7" s="6">
         <v>418920007</v>
@@ -2114,12 +2126,12 @@
         <v>2</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>228</v>
@@ -2128,7 +2140,7 @@
         <v>228</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E8" s="6">
         <v>59533004</v>
@@ -2143,9 +2155,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>189</v>
@@ -2154,10 +2166,10 @@
         <v>189</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E9" s="6">
-        <v>311984009</v>
+        <v>57795002</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>40</v>
@@ -2166,15 +2178,15 @@
         <v>336</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>229</v>
@@ -2183,7 +2195,7 @@
         <v>229</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E10" s="6">
         <v>256326004</v>
@@ -2198,9 +2210,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>217</v>
@@ -2209,7 +2221,7 @@
         <v>217</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E11" s="6">
         <v>83619009</v>
@@ -2224,9 +2236,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>230</v>
@@ -2235,7 +2247,7 @@
         <v>230</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E12" s="6">
         <v>735030001</v>
@@ -2250,9 +2262,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>191</v>
@@ -2261,7 +2273,7 @@
         <v>191</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E13" s="6">
         <v>12503006</v>
@@ -2276,9 +2288,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>219</v>
@@ -2287,7 +2299,7 @@
         <v>219</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E14" s="6">
         <v>256303006</v>
@@ -2302,9 +2314,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>231</v>
@@ -2313,9 +2325,9 @@
         <v>231</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="E15" s="7">
+        <v>464</v>
+      </c>
+      <c r="E15" s="6">
         <v>762952008</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -2328,15 +2340,18 @@
         <v>2</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>192</v>
@@ -2345,7 +2360,7 @@
         <v>192</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E16" s="6">
         <v>387293003</v>
@@ -2360,9 +2375,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>184</v>
@@ -2371,7 +2386,7 @@
         <v>184</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E17" s="6">
         <v>303315009</v>
@@ -2386,9 +2401,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>220</v>
@@ -2397,7 +2412,7 @@
         <v>220</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E18" s="6">
         <v>128489003</v>
@@ -2412,9 +2427,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>232</v>
@@ -2423,7 +2438,7 @@
         <v>232</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E19" s="6">
         <v>67324005</v>
@@ -2438,9 +2453,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>186</v>
@@ -2449,7 +2464,7 @@
         <v>186</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E20" s="6">
         <v>256260009</v>
@@ -2464,9 +2479,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>233</v>
@@ -2475,7 +2490,7 @@
         <v>233</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E21" s="6">
         <v>11526002</v>
@@ -2490,9 +2505,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>234</v>
@@ -2501,7 +2516,7 @@
         <v>234</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E22" s="6">
         <v>227144008</v>
@@ -2516,9 +2531,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>235</v>
@@ -2527,13 +2542,13 @@
         <v>235</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E23" s="6">
         <v>418504009</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>376</v>
@@ -2542,9 +2557,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>236</v>
@@ -2553,7 +2568,7 @@
         <v>236</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E24" s="6">
         <v>256353000</v>
@@ -2568,9 +2583,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>237</v>
@@ -2579,7 +2594,7 @@
         <v>237</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E25" s="6">
         <v>260174003</v>
@@ -2594,12 +2609,12 @@
         <v>6</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>238</v>
@@ -2608,7 +2623,7 @@
         <v>238</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E26" s="6">
         <v>256307007</v>
@@ -2623,9 +2638,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>198</v>
@@ -2634,7 +2649,7 @@
         <v>198</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E27" s="6">
         <v>14241002</v>
@@ -2649,12 +2664,12 @@
         <v>6</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>239</v>
@@ -2663,7 +2678,7 @@
         <v>239</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E28" s="6">
         <v>735053000</v>
@@ -2678,9 +2693,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>240</v>
@@ -2689,7 +2704,7 @@
         <v>240</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E29" s="6">
         <v>412070003</v>
@@ -2704,9 +2719,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>181</v>
@@ -2715,7 +2730,7 @@
         <v>181</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E30" s="6">
         <v>43230003</v>
@@ -2730,9 +2745,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>241</v>
@@ -2741,7 +2756,7 @@
         <v>241</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E31" s="6">
         <v>278840001</v>
@@ -2756,9 +2771,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>242</v>
@@ -2767,7 +2782,7 @@
         <v>242</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E32" s="6">
         <v>227388008</v>
@@ -2782,9 +2797,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>243</v>
@@ -2793,7 +2808,7 @@
         <v>243</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E33" s="6">
         <v>15838006</v>
@@ -2808,12 +2823,12 @@
         <v>6</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>244</v>
@@ -2822,7 +2837,7 @@
         <v>244</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E34" s="6">
         <v>736159005</v>
@@ -2837,9 +2852,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>196</v>
@@ -2848,7 +2863,7 @@
         <v>196</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E35" s="6">
         <v>9021002</v>
@@ -2863,9 +2878,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>245</v>
@@ -2874,7 +2889,7 @@
         <v>245</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E36" s="6">
         <v>28647000</v>
@@ -2889,9 +2904,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>246</v>
@@ -2900,7 +2915,7 @@
         <v>246</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E37" s="6">
         <v>28230009</v>
@@ -2915,9 +2930,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>247</v>
@@ -2926,7 +2941,7 @@
         <v>247</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E38" s="6">
         <v>226915003</v>
@@ -2941,9 +2956,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>249</v>
@@ -2952,7 +2967,7 @@
         <v>249</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E39" s="6">
         <v>13577000</v>
@@ -2967,9 +2982,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>248</v>
@@ -2978,7 +2993,7 @@
         <v>248</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E40" s="6">
         <v>227493005</v>
@@ -2993,9 +3008,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>250</v>
@@ -3004,7 +3019,7 @@
         <v>250</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E41" s="6">
         <v>735047000</v>
@@ -3019,9 +3034,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>251</v>
@@ -3030,7 +3045,7 @@
         <v>251</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E42" s="6">
         <v>256319004</v>
@@ -3045,9 +3060,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>252</v>
@@ -3056,7 +3071,7 @@
         <v>252</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E43" s="6">
         <v>412068007</v>
@@ -3071,9 +3086,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>253</v>
@@ -3082,7 +3097,7 @@
         <v>253</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E44" s="6">
         <v>23182003</v>
@@ -3097,9 +3112,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>254</v>
@@ -3108,7 +3123,7 @@
         <v>254</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E45" s="6">
         <v>735248001</v>
@@ -3123,9 +3138,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>255</v>
@@ -3134,7 +3149,7 @@
         <v>255</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E46" s="6">
         <v>102262009</v>
@@ -3149,9 +3164,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>197</v>
@@ -3160,7 +3175,7 @@
         <v>197</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E47" s="6">
         <v>59351004</v>
@@ -3175,9 +3190,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>256</v>
@@ -3186,7 +3201,7 @@
         <v>256</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E48" s="6">
         <v>256443002</v>
@@ -3201,9 +3216,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>210</v>
@@ -3212,7 +3227,7 @@
         <v>210</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E49" s="6">
         <v>2799001</v>
@@ -3227,9 +3242,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>200</v>
@@ -3238,7 +3253,7 @@
         <v>200</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E50" s="6">
         <v>66925006</v>
@@ -3247,16 +3262,16 @@
         <v>51</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>257</v>
@@ -3265,7 +3280,7 @@
         <v>257</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E51" s="6">
         <v>735211005</v>
@@ -3280,9 +3295,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>258</v>
@@ -3291,7 +3306,7 @@
         <v>258</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E52" s="6">
         <v>88818001</v>
@@ -3306,12 +3321,12 @@
         <v>6</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>259</v>
@@ -3320,7 +3335,7 @@
         <v>259</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E53" s="6">
         <v>735045008</v>
@@ -3335,9 +3350,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>204</v>
@@ -3346,7 +3361,7 @@
         <v>204</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E54" s="6">
         <v>57126000</v>
@@ -3361,9 +3376,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>199</v>
@@ -3372,7 +3387,7 @@
         <v>199</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E55" s="6">
         <v>420111002</v>
@@ -3387,12 +3402,12 @@
         <v>6</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>168</v>
@@ -3401,7 +3416,7 @@
         <v>168</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E56" s="6">
         <v>289122001</v>
@@ -3416,9 +3431,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>260</v>
@@ -3427,7 +3442,7 @@
         <v>260</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E57" s="6">
         <v>227389000</v>
@@ -3442,9 +3457,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>261</v>
@@ -3453,7 +3468,7 @@
         <v>261</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E58" s="6">
         <v>421133009</v>
@@ -3468,12 +3483,12 @@
         <v>6</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>262</v>
@@ -3482,7 +3497,7 @@
         <v>262</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E59" s="6">
         <v>227395004</v>
@@ -3497,9 +3512,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>185</v>
@@ -3508,7 +3523,7 @@
         <v>185</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E60" s="6">
         <v>43735007</v>
@@ -3523,9 +3538,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>263</v>
@@ -3534,7 +3549,7 @@
         <v>263</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E61" s="6">
         <v>227374009</v>
@@ -3549,9 +3564,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>226</v>
@@ -3560,7 +3575,7 @@
         <v>226</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E62" s="6">
         <v>419604006</v>
@@ -3575,9 +3590,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>171</v>
@@ -3586,7 +3601,7 @@
         <v>171</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E63" s="6">
         <v>115589000</v>
@@ -3601,9 +3616,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>264</v>
@@ -3612,7 +3627,7 @@
         <v>264</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E64" s="6">
         <v>63766005</v>
@@ -3627,9 +3642,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>265</v>
@@ -3638,7 +3653,7 @@
         <v>265</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E65" s="6">
         <v>256354006</v>
@@ -3653,9 +3668,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>207</v>
@@ -3664,7 +3679,7 @@
         <v>207</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E66" s="6">
         <v>3829006</v>
@@ -3679,9 +3694,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>266</v>
@@ -3690,7 +3705,7 @@
         <v>266</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E67" s="6">
         <v>227425007</v>
@@ -3705,9 +3720,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>267</v>
@@ -3716,7 +3731,7 @@
         <v>267</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E68" s="6">
         <v>227444000</v>
@@ -3731,9 +3746,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>268</v>
@@ -3742,7 +3757,7 @@
         <v>268</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E69" s="6">
         <v>102259006</v>
@@ -3757,9 +3772,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>269</v>
@@ -3768,7 +3783,7 @@
         <v>269</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E70" s="6">
         <v>227400003</v>
@@ -3783,9 +3798,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>270</v>
@@ -3794,7 +3809,7 @@
         <v>270</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E71" s="6">
         <v>430503006</v>
@@ -3809,9 +3824,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>174</v>
@@ -3820,7 +3835,7 @@
         <v>174</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E72" s="6">
         <v>422304003</v>
@@ -3835,12 +3850,12 @@
         <v>6</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>271</v>
@@ -3849,7 +3864,7 @@
         <v>271</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E73" s="6">
         <v>264331002</v>
@@ -3864,9 +3879,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>272</v>
@@ -3875,7 +3890,7 @@
         <v>272</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E74" s="6">
         <v>256355007</v>
@@ -3890,9 +3905,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>273</v>
@@ -3901,7 +3916,7 @@
         <v>273</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E75" s="6">
         <v>260176001</v>
@@ -3916,9 +3931,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>227</v>
@@ -3927,7 +3942,7 @@
         <v>227</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E76" s="6">
         <v>412161004</v>
@@ -3942,9 +3957,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>274</v>
@@ -3953,7 +3968,7 @@
         <v>274</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E77" s="6">
         <v>736162008</v>
@@ -3968,9 +3983,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>275</v>
@@ -3979,7 +3994,7 @@
         <v>275</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E78" s="6">
         <v>736030007</v>
@@ -3994,9 +4009,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>209</v>
@@ -4005,7 +4020,7 @@
         <v>209</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E79" s="6">
         <v>42416001</v>
@@ -4020,9 +4035,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>276</v>
@@ -4031,27 +4046,27 @@
         <v>276</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E80" s="6">
         <v>256306003</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>460</v>
+      <c r="F80" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>195</v>
@@ -4060,7 +4075,7 @@
         <v>195</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E81" s="6">
         <v>261243003</v>
@@ -4069,15 +4084,15 @@
         <v>46</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>177</v>
@@ -4086,7 +4101,7 @@
         <v>177</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E82" s="6">
         <v>111088007</v>
@@ -4101,9 +4116,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>277</v>
@@ -4112,7 +4127,7 @@
         <v>277</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E83" s="7">
         <v>226760005</v>
@@ -4127,12 +4142,12 @@
         <v>6</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>278</v>
@@ -4141,7 +4156,7 @@
         <v>278</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E84" s="6">
         <v>227313005</v>
@@ -4156,9 +4171,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>279</v>
@@ -4167,13 +4182,13 @@
         <v>279</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E85" s="6">
         <v>227430006</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>416</v>
@@ -4182,12 +4197,12 @@
         <v>6</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>280</v>
@@ -4196,7 +4211,7 @@
         <v>280</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E86" s="6">
         <v>735340006</v>
@@ -4212,9 +4227,9 @@
       </c>
       <c r="K86" s="9"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>281</v>
@@ -4223,7 +4238,7 @@
         <v>281</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E87" s="6">
         <v>735006003</v>
@@ -4238,9 +4253,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>282</v>
@@ -4249,7 +4264,7 @@
         <v>282</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E88" s="6">
         <v>735215001</v>
@@ -4264,9 +4279,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>188</v>
@@ -4275,7 +4290,7 @@
         <v>188</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E89" s="6">
         <v>14402002</v>
@@ -4290,9 +4305,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>283</v>
@@ -4301,7 +4316,7 @@
         <v>283</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E90" s="6">
         <v>260179008</v>
@@ -4316,9 +4331,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>284</v>
@@ -4327,7 +4342,7 @@
         <v>284</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E91" s="6">
         <v>80237000</v>
@@ -4342,9 +4357,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>285</v>
@@ -4353,7 +4368,7 @@
         <v>285</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E92" s="6">
         <v>735029006</v>
@@ -4368,9 +4383,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>216</v>
@@ -4379,7 +4394,7 @@
         <v>216</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E93" s="6">
         <v>256504004</v>
@@ -4394,9 +4409,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>223</v>
@@ -4405,7 +4420,7 @@
         <v>223</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E94" s="6">
         <v>412160003</v>
@@ -4420,12 +4435,12 @@
         <v>6</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>286</v>
@@ -4434,7 +4449,7 @@
         <v>286</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E95" s="6">
         <v>419420009</v>
@@ -4449,9 +4464,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>287</v>
@@ -4460,7 +4475,7 @@
         <v>287</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E96" s="6">
         <v>260177005</v>
@@ -4475,9 +4490,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>288</v>
@@ -4486,7 +4501,7 @@
         <v>288</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E97" s="6">
         <v>77188000</v>
@@ -4501,12 +4516,12 @@
         <v>6</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>289</v>
@@ -4515,7 +4530,7 @@
         <v>289</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E98" s="6">
         <v>412357001</v>
@@ -4530,9 +4545,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>290</v>
@@ -4541,7 +4556,7 @@
         <v>290</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E99" s="6">
         <v>412061001</v>
@@ -4556,9 +4571,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>291</v>
@@ -4567,7 +4582,7 @@
         <v>291</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E100" s="6">
         <v>102261002</v>
@@ -4582,9 +4597,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>292</v>
@@ -4593,7 +4608,7 @@
         <v>292</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E101" s="6">
         <v>51905005</v>
@@ -4608,9 +4623,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>167</v>
@@ -4619,7 +4634,7 @@
         <v>167</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E102" s="6">
         <v>33396006</v>
@@ -4634,9 +4649,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>294</v>
@@ -4645,7 +4660,7 @@
         <v>294</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E103" s="6">
         <v>256352005</v>
@@ -4660,9 +4675,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>293</v>
@@ -4671,7 +4686,7 @@
         <v>293</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E104" s="6">
         <v>735046009</v>
@@ -4686,9 +4701,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>202</v>
@@ -4697,7 +4712,7 @@
         <v>202</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E105" s="6">
         <v>12510000</v>
@@ -4712,9 +4727,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>295</v>
@@ -4723,7 +4738,7 @@
         <v>295</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E106" s="6">
         <v>735341005</v>
@@ -4738,9 +4753,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>212</v>
@@ -4749,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E107" s="6">
         <v>119417004</v>
@@ -4764,9 +4779,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>296</v>
@@ -4775,7 +4790,7 @@
         <v>296</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E108" s="6">
         <v>736031006</v>
@@ -4790,9 +4805,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>205</v>
@@ -4801,7 +4816,7 @@
         <v>205</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E109" s="6">
         <v>2309006</v>
@@ -4816,9 +4831,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>190</v>
@@ -4827,7 +4842,7 @@
         <v>190</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E110" s="6">
         <v>74964007</v>
@@ -4842,12 +4857,12 @@
         <v>6</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>297</v>
@@ -4856,7 +4871,7 @@
         <v>297</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E111" s="7">
         <v>406465008</v>
@@ -4871,12 +4886,12 @@
         <v>6</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>298</v>
@@ -4885,7 +4900,7 @@
         <v>298</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E112" s="6">
         <v>227408005</v>
@@ -4900,9 +4915,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>178</v>
@@ -4911,7 +4926,7 @@
         <v>178</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E113" s="6">
         <v>255667006</v>
@@ -4926,9 +4941,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>299</v>
@@ -4937,7 +4952,7 @@
         <v>299</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E114" s="6">
         <v>735971005</v>
@@ -4952,9 +4967,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>203</v>
@@ -4963,7 +4978,7 @@
         <v>203</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E115" s="6">
         <v>90580008</v>
@@ -4978,12 +4993,12 @@
         <v>6</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>163</v>
@@ -4992,7 +5007,7 @@
         <v>163</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E116" s="6">
         <v>276310004</v>
@@ -5007,13 +5022,13 @@
         <v>2</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>169</v>
@@ -5022,7 +5037,7 @@
         <v>169</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E117" s="6">
         <v>260154005</v>
@@ -5037,9 +5052,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>175</v>
@@ -5048,7 +5063,7 @@
         <v>175</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E118" s="6">
         <v>256417003</v>
@@ -5063,9 +5078,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>218</v>
@@ -5074,7 +5089,7 @@
         <v>218</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E119" s="6">
         <v>412153009</v>
@@ -5089,9 +5104,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>165</v>
@@ -5100,7 +5115,7 @@
         <v>165</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E120" s="6">
         <v>260152009</v>
@@ -5115,9 +5130,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>201</v>
@@ -5126,7 +5141,7 @@
         <v>201</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E121" s="6">
         <v>260153004</v>
@@ -5141,9 +5156,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>172</v>
@@ -5152,13 +5167,13 @@
         <v>172</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E122" s="6">
         <v>256435007</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>320</v>
@@ -5167,9 +5182,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>213</v>
@@ -5178,7 +5193,7 @@
         <v>213</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E123" s="6">
         <v>410853002</v>
@@ -5193,9 +5208,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>179</v>
@@ -5204,7 +5219,7 @@
         <v>179</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E124" s="6">
         <v>418785009</v>
@@ -5219,9 +5234,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>194</v>
@@ -5230,7 +5245,7 @@
         <v>194</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E125" s="6">
         <v>91598004</v>
@@ -5245,9 +5260,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>300</v>
@@ -5256,7 +5271,7 @@
         <v>300</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E126" s="6">
         <v>735049002</v>
@@ -5271,9 +5286,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>214</v>
@@ -5282,7 +5297,7 @@
         <v>214</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E127" s="6">
         <v>59545008</v>
@@ -5297,9 +5312,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>211</v>
@@ -5308,7 +5323,7 @@
         <v>211</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E128" s="6">
         <v>116549003</v>
@@ -5323,9 +5338,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>301</v>
@@ -5334,7 +5349,7 @@
         <v>301</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E129" s="6">
         <v>412066006</v>
@@ -5349,9 +5364,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>302</v>
@@ -5360,7 +5375,7 @@
         <v>302</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E130" s="6">
         <v>227511008</v>
@@ -5375,9 +5390,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>303</v>
@@ -5386,7 +5401,7 @@
         <v>303</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E131" s="6">
         <v>227512001</v>
@@ -5401,9 +5416,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>215</v>
@@ -5412,7 +5427,7 @@
         <v>215</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E132" s="6">
         <v>387398009</v>
@@ -5427,9 +5442,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>180</v>
@@ -5438,7 +5453,7 @@
         <v>180</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E133" s="6">
         <v>256259004</v>
@@ -5453,9 +5468,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>173</v>
@@ -5464,7 +5479,7 @@
         <v>173</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E134" s="6">
         <v>256277009</v>
@@ -5479,9 +5494,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>304</v>
@@ -5490,7 +5505,7 @@
         <v>304</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E135" s="6">
         <v>735979007</v>
@@ -5505,9 +5520,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>305</v>
@@ -5516,7 +5531,7 @@
         <v>305</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E136" s="6">
         <v>226934003</v>
@@ -5531,9 +5546,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>222</v>
@@ -5542,7 +5557,7 @@
         <v>222</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E137" s="6">
         <v>41967008</v>
@@ -5557,9 +5572,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>306</v>
@@ -5568,7 +5583,7 @@
         <v>306</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E138" s="6">
         <v>264295007</v>
@@ -5583,9 +5598,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>307</v>
@@ -5594,7 +5609,7 @@
         <v>307</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E139" s="6">
         <v>303300008</v>
@@ -5609,9 +5624,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>308</v>
@@ -5620,7 +5635,7 @@
         <v>308</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E140" s="6">
         <v>102264005</v>
@@ -5635,9 +5650,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>225</v>
@@ -5646,7 +5661,7 @@
         <v>225</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E141" s="6">
         <v>256305004</v>
@@ -5661,9 +5676,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>208</v>
@@ -5672,7 +5687,7 @@
         <v>208</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E142" s="6">
         <v>31006001</v>
@@ -5687,9 +5702,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>221</v>
@@ -5698,7 +5713,7 @@
         <v>221</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E143" s="6">
         <v>412156001</v>
@@ -5713,9 +5728,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>309</v>
@@ -5724,7 +5739,7 @@
         <v>309</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E144" s="6">
         <v>264337003</v>
@@ -5739,9 +5754,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>310</v>
@@ -5750,7 +5765,7 @@
         <v>310</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E145" s="6">
         <v>38946001</v>
@@ -5765,12 +5780,12 @@
         <v>6</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>183</v>
@@ -5779,7 +5794,7 @@
         <v>183</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E146" s="6">
         <v>51420009</v>
@@ -5794,9 +5809,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>311</v>
@@ -5805,7 +5820,7 @@
         <v>311</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E147" s="6">
         <v>767406000</v>
@@ -5820,9 +5835,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>224</v>
@@ -5831,7 +5846,7 @@
         <v>224</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E148" s="6">
         <v>415710007</v>
@@ -5846,9 +5861,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>206</v>
@@ -5857,7 +5872,7 @@
         <v>206</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E149" s="6">
         <v>412145001</v>
@@ -5872,9 +5887,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>170</v>
@@ -5883,7 +5898,7 @@
         <v>170</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E150" s="6">
         <v>61789006</v>
@@ -5898,9 +5913,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>312</v>
@@ -5909,7 +5924,7 @@
         <v>312</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E151" s="6">
         <v>734881000</v>
@@ -5924,9 +5939,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>166</v>
@@ -5935,7 +5950,7 @@
         <v>166</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E152" s="6">
         <v>11894001</v>
@@ -5950,9 +5965,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>313</v>
@@ -5961,7 +5976,7 @@
         <v>313</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E153" s="6">
         <v>412071004</v>
@@ -5976,9 +5991,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>182</v>
@@ -5987,7 +6002,7 @@
         <v>182</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E154" s="6">
         <v>303314008</v>
@@ -6002,9 +6017,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>187</v>
@@ -6013,7 +6028,7 @@
         <v>187</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E155" s="6">
         <v>256440004</v>
@@ -6022,7 +6037,7 @@
         <v>38</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>2</v>
@@ -6033,10 +6048,6 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:L155">
     <sortCondition ref="C4:C155"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
@@ -6055,7 +6066,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>'\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I3</xm:sqref>
         </x14:dataValidation>

--- a/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5204E4-A6CB-734F-9366-3465A62C4439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF487D-C22F-2D45-9431-CBF111EBF659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="470">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Silver (substance)</t>
   </si>
   <si>
-    <t>Suture allergen (substance)</t>
-  </si>
-  <si>
     <t>Terpene (substance)</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
     <t>Clam (substance)</t>
   </si>
   <si>
-    <t>Dairy foods (substance)</t>
-  </si>
-  <si>
     <t>Pulse vegetables (substance)</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>Oyster (substance)</t>
   </si>
   <si>
-    <t>Food allergen (substance)</t>
-  </si>
-  <si>
     <t>Paprika (substance)</t>
   </si>
   <si>
@@ -509,9 +500,6 @@
     <t>Seed (substance)</t>
   </si>
   <si>
-    <t>Cuttlefish (organism)</t>
-  </si>
-  <si>
     <t>Sulfite and sulfite derivative (substance)</t>
   </si>
   <si>
@@ -1331,9 +1319,6 @@
     <t>Oyster</t>
   </si>
   <si>
-    <t>Food allergen</t>
-  </si>
-  <si>
     <t>Paprika</t>
   </si>
   <si>
@@ -1367,9 +1352,6 @@
     <t>Seed</t>
   </si>
   <si>
-    <t>Cuttlefish</t>
-  </si>
-  <si>
     <t>Sulfite and sulfite derivative</t>
   </si>
   <si>
@@ -1446,6 +1428,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>lactose (substance)</t>
+  </si>
+  <si>
+    <t>Suture  (physical object)</t>
+  </si>
+  <si>
+    <t>Allergy to food (finding)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food allergenAllergy to food </t>
+  </si>
+  <si>
+    <t>Squid (substance)|</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1586,7 +1583,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1936,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1951,42 +1947,42 @@
     <col min="8" max="8" width="17.1640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="27.5" style="6" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="7" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="6" customWidth="1"/>
     <col min="13" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>468</v>
+      <c r="A1" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1995,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -2015,22 +2011,22 @@
       <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>460</v>
+      <c r="K3" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E4" s="6">
         <v>288328004</v>
@@ -2039,27 +2035,27 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E5" s="6">
         <v>128488006</v>
@@ -2068,7 +2064,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>2</v>
@@ -2076,16 +2072,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E6" s="6">
         <v>386936005</v>
@@ -2094,7 +2090,7 @@
         <v>44</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>2</v>
@@ -2102,16 +2098,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E7" s="6">
         <v>418920007</v>
@@ -2120,36 +2116,36 @@
         <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E8" s="6">
         <v>59533004</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>2</v>
@@ -2157,16 +2153,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E9" s="6">
         <v>57795002</v>
@@ -2175,36 +2171,36 @@
         <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E10" s="6">
         <v>256326004</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>2</v>
@@ -2212,16 +2208,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E11" s="6">
         <v>83619009</v>
@@ -2230,7 +2226,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>2</v>
@@ -2238,25 +2234,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E12" s="6">
         <v>735030001</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>2</v>
@@ -2264,16 +2260,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E13" s="6">
         <v>12503006</v>
@@ -2282,7 +2278,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>2</v>
@@ -2290,16 +2286,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E14" s="6">
         <v>256303006</v>
@@ -2316,51 +2312,51 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E15" s="6">
         <v>762952008</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>470</v>
+      <c r="K15" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E16" s="6">
         <v>387293003</v>
@@ -2369,7 +2365,7 @@
         <v>43</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>2</v>
@@ -2377,16 +2373,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E17" s="6">
         <v>303315009</v>
@@ -2395,7 +2391,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>2</v>
@@ -2403,16 +2399,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E18" s="6">
         <v>128489003</v>
@@ -2421,7 +2417,7 @@
         <v>71</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>2</v>
@@ -2429,25 +2425,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E19" s="6">
         <v>67324005</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>2</v>
@@ -2455,16 +2451,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E20" s="6">
         <v>256260009</v>
@@ -2473,7 +2469,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>2</v>
@@ -2481,25 +2477,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E21" s="6">
         <v>11526002</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>2</v>
@@ -2507,25 +2503,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E22" s="6">
         <v>227144008</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>2</v>
@@ -2533,25 +2529,25 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E23" s="6">
         <v>418504009</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>2</v>
@@ -2559,25 +2555,25 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E24" s="6">
         <v>256353000</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>2</v>
@@ -2585,54 +2581,54 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E25" s="6">
         <v>260174003</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>450</v>
+      <c r="K25" s="7" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E26" s="6">
         <v>256307007</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -2640,16 +2636,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E27" s="6">
         <v>14241002</v>
@@ -2658,36 +2654,36 @@
         <v>49</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E28" s="6">
         <v>735053000</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>2</v>
@@ -2695,25 +2691,25 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E29" s="6">
         <v>412070003</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>2</v>
@@ -2721,16 +2717,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E30" s="6">
         <v>43230003</v>
@@ -2739,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>2</v>
@@ -2747,25 +2743,25 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E31" s="6">
         <v>278840001</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>2</v>
@@ -2773,25 +2769,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E32" s="6">
         <v>227388008</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>2</v>
@@ -2799,54 +2795,54 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E33" s="6">
         <v>15838006</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>456</v>
+      <c r="K33" s="7" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E34" s="6">
         <v>736159005</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>2</v>
@@ -2854,16 +2850,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E35" s="6">
         <v>9021002</v>
@@ -2872,7 +2868,7 @@
         <v>47</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>2</v>
@@ -2880,25 +2876,25 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E36" s="6">
         <v>28647000</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>2</v>
@@ -2906,25 +2902,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E37" s="6">
         <v>28230009</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>2</v>
@@ -2932,25 +2928,25 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E38" s="6">
         <v>226915003</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>2</v>
@@ -2958,25 +2954,25 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E39" s="6">
         <v>13577000</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>2</v>
@@ -2984,25 +2980,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E40" s="6">
         <v>227493005</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>2</v>
@@ -3010,25 +3006,25 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E41" s="6">
         <v>735047000</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -3036,25 +3032,25 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E42" s="6">
         <v>256319004</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -3062,25 +3058,25 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E43" s="6">
         <v>412068007</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>2</v>
@@ -3088,25 +3084,25 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E44" s="6">
         <v>23182003</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>2</v>
@@ -3114,25 +3110,25 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E45" s="6">
         <v>735248001</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>2</v>
@@ -3140,25 +3136,25 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E46" s="6">
         <v>102262009</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>2</v>
@@ -3166,16 +3162,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E47" s="6">
         <v>59351004</v>
@@ -3184,7 +3180,7 @@
         <v>48</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>2</v>
@@ -3192,25 +3188,25 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E48" s="6">
         <v>256443002</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -3218,16 +3214,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E49" s="6">
         <v>2799001</v>
@@ -3236,7 +3232,7 @@
         <v>61</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -3244,16 +3240,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E50" s="6">
         <v>66925006</v>
@@ -3262,7 +3258,7 @@
         <v>51</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>2</v>
@@ -3271,25 +3267,25 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E51" s="6">
         <v>735211005</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>2</v>
@@ -3297,54 +3293,54 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E52" s="6">
         <v>88818001</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K52" s="8" t="s">
-        <v>456</v>
+      <c r="K52" s="7" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E53" s="6">
         <v>735045008</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>2</v>
@@ -3352,16 +3348,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E54" s="6">
         <v>57126000</v>
@@ -3370,7 +3366,7 @@
         <v>55</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>2</v>
@@ -3378,16 +3374,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E55" s="6">
         <v>420111002</v>
@@ -3396,27 +3392,27 @@
         <v>50</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E56" s="6">
         <v>289122001</v>
@@ -3433,25 +3429,25 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E57" s="6">
         <v>227389000</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>2</v>
@@ -3459,54 +3455,54 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E58" s="6">
         <v>421133009</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K58" s="8" t="s">
-        <v>456</v>
+      <c r="K58" s="7" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E59" s="6">
         <v>227395004</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>2</v>
@@ -3514,16 +3510,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E60" s="6">
         <v>43735007</v>
@@ -3532,7 +3528,7 @@
         <v>36</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>2</v>
@@ -3540,25 +3536,25 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E61" s="6">
         <v>227374009</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>2</v>
@@ -3566,25 +3562,25 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E62" s="6">
         <v>419604006</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>2</v>
@@ -3592,16 +3588,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E63" s="6">
         <v>115589000</v>
@@ -3618,25 +3614,25 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E64" s="6">
         <v>63766005</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>2</v>
@@ -3644,25 +3640,25 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E65" s="6">
         <v>256354006</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>2</v>
@@ -3670,16 +3666,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E66" s="6">
         <v>3829006</v>
@@ -3688,7 +3684,7 @@
         <v>58</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>2</v>
@@ -3696,25 +3692,25 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E67" s="6">
         <v>227425007</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>2</v>
@@ -3722,25 +3718,25 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E68" s="6">
         <v>227444000</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>2</v>
@@ -3748,25 +3744,25 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E69" s="6">
         <v>102259006</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>2</v>
@@ -3774,25 +3770,25 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E70" s="6">
         <v>227400003</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>2</v>
@@ -3800,25 +3796,25 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E71" s="6">
         <v>430503006</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>2</v>
@@ -3826,16 +3822,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E72" s="6">
         <v>422304003</v>
@@ -3844,36 +3840,36 @@
         <v>25</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E73" s="6">
         <v>264331002</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>2</v>
@@ -3881,25 +3877,25 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E74" s="6">
         <v>256355007</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>2</v>
@@ -3907,25 +3903,25 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E75" s="6">
         <v>260176001</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>2</v>
@@ -3933,25 +3929,25 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E76" s="6">
         <v>412161004</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>2</v>
@@ -3959,25 +3955,25 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E77" s="6">
         <v>736162008</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>2</v>
@@ -3985,25 +3981,25 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E78" s="6">
         <v>736030007</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>2</v>
@@ -4011,16 +4007,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E79" s="6">
         <v>42416001</v>
@@ -4029,7 +4025,7 @@
         <v>60</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>2</v>
@@ -4037,45 +4033,45 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E80" s="6">
         <v>256306003</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K80" s="9" t="s">
-        <v>470</v>
+      <c r="K80" s="8" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E81" s="6">
         <v>261243003</v>
@@ -4084,7 +4080,7 @@
         <v>46</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>2</v>
@@ -4092,16 +4088,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E82" s="6">
         <v>111088007</v>
@@ -4110,7 +4106,7 @@
         <v>28</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>2</v>
@@ -4118,54 +4114,54 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D83" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E83" s="6">
+        <v>47703008</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="E83" s="7">
-        <v>226760005</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E84" s="6">
         <v>227313005</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>2</v>
@@ -4173,81 +4169,81 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E85" s="6">
         <v>227430006</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K85" s="8" t="s">
-        <v>456</v>
+      <c r="K85" s="7" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E86" s="6">
         <v>735340006</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K86" s="9"/>
+      <c r="K86" s="8"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E87" s="6">
         <v>735006003</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>2</v>
@@ -4255,25 +4251,25 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E88" s="6">
         <v>735215001</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>2</v>
@@ -4281,16 +4277,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E89" s="6">
         <v>14402002</v>
@@ -4299,7 +4295,7 @@
         <v>39</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>2</v>
@@ -4307,25 +4303,25 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E90" s="6">
         <v>260179008</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>2</v>
@@ -4333,25 +4329,25 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E91" s="6">
         <v>80237000</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>2</v>
@@ -4359,25 +4355,25 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E92" s="6">
         <v>735029006</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>2</v>
@@ -4385,16 +4381,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E93" s="6">
         <v>256504004</v>
@@ -4403,7 +4399,7 @@
         <v>67</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>2</v>
@@ -4411,54 +4407,54 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E94" s="6">
-        <v>412160003</v>
+        <v>408099007</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>74</v>
+        <v>466</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E95" s="6">
         <v>419420009</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>2</v>
@@ -4466,25 +4462,25 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E96" s="6">
         <v>260177005</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>2</v>
@@ -4492,54 +4488,54 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E97" s="6">
         <v>77188000</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K97" s="8" t="s">
-        <v>456</v>
+      <c r="K97" s="7" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E98" s="6">
         <v>412357001</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>2</v>
@@ -4547,25 +4543,25 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E99" s="6">
         <v>412061001</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>2</v>
@@ -4573,25 +4569,25 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E100" s="6">
         <v>102261002</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>2</v>
@@ -4599,25 +4595,25 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E101" s="6">
         <v>51905005</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>2</v>
@@ -4625,16 +4621,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E102" s="6">
         <v>33396006</v>
@@ -4643,7 +4639,7 @@
         <v>19</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>2</v>
@@ -4651,25 +4647,25 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E103" s="6">
         <v>256352005</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>2</v>
@@ -4677,25 +4673,25 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E104" s="6">
         <v>735046009</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>2</v>
@@ -4703,16 +4699,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E105" s="6">
         <v>12510000</v>
@@ -4721,7 +4717,7 @@
         <v>53</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>2</v>
@@ -4729,25 +4725,25 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E106" s="6">
         <v>735341005</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>2</v>
@@ -4755,16 +4751,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E107" s="6">
         <v>119417004</v>
@@ -4773,7 +4769,7 @@
         <v>63</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>2</v>
@@ -4781,25 +4777,25 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E108" s="6">
         <v>736031006</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>2</v>
@@ -4807,16 +4803,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E109" s="6">
         <v>2309006</v>
@@ -4825,7 +4821,7 @@
         <v>56</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>2</v>
@@ -4833,16 +4829,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E110" s="6">
         <v>74964007</v>
@@ -4857,59 +4853,59 @@
         <v>6</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D111" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E111" s="6">
+        <v>414285001</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="E111" s="7">
-        <v>406465008</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E112" s="6">
         <v>227408005</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>2</v>
@@ -4917,16 +4913,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E113" s="6">
         <v>255667006</v>
@@ -4935,7 +4931,7 @@
         <v>29</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>2</v>
@@ -4943,25 +4939,25 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E114" s="6">
         <v>735971005</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>2</v>
@@ -4969,16 +4965,16 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E115" s="6">
         <v>90580008</v>
@@ -4987,27 +4983,27 @@
         <v>54</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E116" s="6">
         <v>276310004</v>
@@ -5016,28 +5012,28 @@
         <v>15</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E117" s="6">
         <v>260154005</v>
@@ -5046,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>2</v>
@@ -5054,16 +5050,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E118" s="6">
         <v>256417003</v>
@@ -5072,7 +5068,7 @@
         <v>26</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>2</v>
@@ -5080,16 +5076,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E119" s="6">
         <v>412153009</v>
@@ -5098,7 +5094,7 @@
         <v>69</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I119" s="6" t="s">
         <v>2</v>
@@ -5106,16 +5102,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E120" s="6">
         <v>260152009</v>
@@ -5132,16 +5128,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E121" s="6">
         <v>260153004</v>
@@ -5150,7 +5146,7 @@
         <v>52</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>2</v>
@@ -5158,25 +5154,25 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E122" s="6">
         <v>256435007</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>2</v>
@@ -5184,16 +5180,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E123" s="6">
         <v>410853002</v>
@@ -5202,7 +5198,7 @@
         <v>64</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>2</v>
@@ -5210,16 +5206,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E124" s="6">
         <v>418785009</v>
@@ -5228,7 +5224,7 @@
         <v>30</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>2</v>
@@ -5236,16 +5232,16 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E125" s="6">
         <v>91598004</v>
@@ -5254,7 +5250,7 @@
         <v>45</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>2</v>
@@ -5262,25 +5258,25 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E126" s="6">
         <v>735049002</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>2</v>
@@ -5288,16 +5284,16 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E127" s="6">
         <v>59545008</v>
@@ -5306,7 +5302,7 @@
         <v>65</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I127" s="6" t="s">
         <v>2</v>
@@ -5314,16 +5310,16 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E128" s="6">
         <v>116549003</v>
@@ -5332,7 +5328,7 @@
         <v>62</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>2</v>
@@ -5340,25 +5336,25 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E129" s="6">
         <v>412066006</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>2</v>
@@ -5366,25 +5362,25 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E130" s="6">
         <v>227511008</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>2</v>
@@ -5392,25 +5388,25 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E131" s="6">
         <v>227512001</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>2</v>
@@ -5418,16 +5414,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E132" s="6">
         <v>387398009</v>
@@ -5436,7 +5432,7 @@
         <v>66</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>2</v>
@@ -5444,16 +5440,16 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E133" s="6">
         <v>256259004</v>
@@ -5462,7 +5458,7 @@
         <v>31</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>2</v>
@@ -5470,16 +5466,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E134" s="6">
         <v>256277009</v>
@@ -5488,7 +5484,7 @@
         <v>24</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>2</v>
@@ -5496,25 +5492,25 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E135" s="6">
         <v>735979007</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>2</v>
@@ -5522,25 +5518,25 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E136" s="6">
         <v>226934003</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>2</v>
@@ -5548,16 +5544,16 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E137" s="6">
         <v>41967008</v>
@@ -5566,7 +5562,7 @@
         <v>73</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>2</v>
@@ -5574,25 +5570,25 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E138" s="6">
         <v>264295007</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>2</v>
@@ -5600,25 +5596,25 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E139" s="6">
         <v>303300008</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I139" s="6" t="s">
         <v>2</v>
@@ -5626,25 +5622,25 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E140" s="6">
         <v>102264005</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>2</v>
@@ -5652,25 +5648,25 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E141" s="6">
         <v>256305004</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>2</v>
@@ -5678,16 +5674,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E142" s="6">
         <v>31006001</v>
@@ -5696,7 +5692,7 @@
         <v>59</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>2</v>
@@ -5704,16 +5700,16 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E143" s="6">
         <v>412156001</v>
@@ -5722,7 +5718,7 @@
         <v>72</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>2</v>
@@ -5730,25 +5726,25 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E144" s="6">
         <v>264337003</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>2</v>
@@ -5756,45 +5752,45 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D145" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E145" s="6">
+        <v>735006003</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K145" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="E145" s="6">
-        <v>38946001</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E146" s="6">
         <v>51420009</v>
@@ -5803,7 +5799,7 @@
         <v>34</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>2</v>
@@ -5811,25 +5807,25 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E147" s="6">
         <v>767406000</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>2</v>
@@ -5837,25 +5833,25 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E148" s="6">
         <v>415710007</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>2</v>
@@ -5863,16 +5859,16 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E149" s="6">
         <v>412145001</v>
@@ -5881,7 +5877,7 @@
         <v>57</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>2</v>
@@ -5889,16 +5885,16 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E150" s="6">
         <v>61789006</v>
@@ -5915,25 +5911,25 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E151" s="6">
         <v>734881000</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>2</v>
@@ -5941,16 +5937,16 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E152" s="6">
         <v>11894001</v>
@@ -5959,7 +5955,7 @@
         <v>18</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>2</v>
@@ -5967,25 +5963,25 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E153" s="6">
         <v>412071004</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I153" s="6" t="s">
         <v>2</v>
@@ -5993,16 +5989,16 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E154" s="6">
         <v>303314008</v>
@@ -6011,7 +6007,7 @@
         <v>33</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>2</v>
@@ -6019,16 +6015,16 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E155" s="6">
         <v>256440004</v>
@@ -6037,7 +6033,7 @@
         <v>38</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>2</v>
@@ -6066,7 +6062,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
+            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I3</xm:sqref>
         </x14:dataValidation>

--- a/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBF487D-C22F-2D45-9431-CBF111EBF659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85D7806-5520-954F-B0FA-42BB423F2B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equivalências" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1933,7 +1944,7 @@
   <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K151" sqref="K151"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>

--- a/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85D7806-5520-954F-B0FA-42BB423F2B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F6099-D724-D046-B6E8-6DC4EB061302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equivalências" sheetId="2" r:id="rId1"/>
     <sheet name="alergenos-cbara" sheetId="1" r:id="rId2"/>
+    <sheet name="Totais" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'alergenos-cbara'!$B$3:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'alergenos-cbara'!$B$3:$J$155</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">'alergenos-cbara'!$I$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="473">
   <si>
     <t>GRAU DE EQUIVALÊNCIA DO MAPEAMENTO</t>
   </si>
@@ -196,9 +197,6 @@
     <t>Cockroach (organism)</t>
   </si>
   <si>
-    <t>Contact metal agent (substance)</t>
-  </si>
-  <si>
     <t>Copper</t>
   </si>
   <si>
@@ -1132,9 +1130,6 @@
     <t>Silver</t>
   </si>
   <si>
-    <t>Suture allergen</t>
-  </si>
-  <si>
     <t>Terpene</t>
   </si>
   <si>
@@ -1384,9 +1379,6 @@
     <t>Wasp venom (substance)</t>
   </si>
   <si>
-    <t>Conceito INACTIVE</t>
-  </si>
-  <si>
     <t>Brass (substance)</t>
   </si>
   <si>
@@ -1444,16 +1436,34 @@
     <t>lactose (substance)</t>
   </si>
   <si>
-    <t>Suture  (physical object)</t>
-  </si>
-  <si>
     <t>Allergy to food (finding)|</t>
   </si>
   <si>
     <t xml:space="preserve">Food allergenAllergy to food </t>
   </si>
   <si>
-    <t>Squid (substance)|</t>
+    <t>425620007 </t>
+  </si>
+  <si>
+    <t>metal (substance )</t>
+  </si>
+  <si>
+    <t>Ssuture material  (physical object)</t>
+  </si>
+  <si>
+    <t>Suture material</t>
+  </si>
+  <si>
+    <t>Cuttlefish (organism)</t>
+  </si>
+  <si>
+    <t>Cuttlefish</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1608,6 +1618,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1906,7 +1923,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1941,10 +1958,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1965,35 +1983,35 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -2002,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -2023,21 +2041,21 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E4" s="6">
         <v>288328004</v>
@@ -2046,27 +2064,27 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E5" s="6">
         <v>128488006</v>
@@ -2075,24 +2093,24 @@
         <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E6" s="6">
         <v>386936005</v>
@@ -2101,24 +2119,24 @@
         <v>44</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E7" s="6">
         <v>418920007</v>
@@ -2127,53 +2145,53 @@
         <v>14</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E8" s="6">
         <v>59533004</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E9" s="6">
         <v>57795002</v>
@@ -2182,105 +2200,105 @@
         <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E10" s="6">
         <v>256326004</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E11" s="6">
         <v>83619009</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E12" s="6">
         <v>735030001</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E13" s="6">
         <v>12503006</v>
@@ -2289,85 +2307,85 @@
         <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E14" s="6">
         <v>256303006</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E15" s="6">
         <v>762952008</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E16" s="6">
         <v>387293003</v>
@@ -2376,24 +2394,24 @@
         <v>43</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E17" s="6">
         <v>303315009</v>
@@ -2402,76 +2420,76 @@
         <v>35</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E18" s="6">
         <v>128489003</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E19" s="6">
         <v>67324005</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E20" s="6">
         <v>256260009</v>
@@ -2480,111 +2498,111 @@
         <v>37</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E21" s="6">
         <v>11526002</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E22" s="6">
         <v>227144008</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E23" s="6">
         <v>418504009</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E24" s="6">
         <v>256353000</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>2</v>
@@ -2592,54 +2610,54 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E25" s="6">
         <v>260174003</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E26" s="6">
         <v>256307007</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -2647,16 +2665,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E27" s="6">
         <v>14241002</v>
@@ -2665,79 +2683,79 @@
         <v>49</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E28" s="6">
         <v>735053000</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E29" s="6">
         <v>412070003</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E30" s="6">
         <v>43230003</v>
@@ -2746,59 +2764,59 @@
         <v>32</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E31" s="6">
         <v>278840001</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E32" s="6">
         <v>227388008</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>2</v>
@@ -2806,71 +2824,71 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E33" s="6">
         <v>15838006</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E34" s="6">
         <v>736159005</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E35" s="6">
         <v>9021002</v>
@@ -2879,310 +2897,310 @@
         <v>47</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E36" s="6">
         <v>28647000</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E37" s="6">
         <v>28230009</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E38" s="6">
         <v>226915003</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E39" s="6">
         <v>13577000</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E40" s="6">
         <v>227493005</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E41" s="6">
         <v>735047000</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E42" s="6">
         <v>256319004</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E43" s="6">
         <v>412068007</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E44" s="6">
         <v>23182003</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E45" s="6">
         <v>735248001</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E46" s="6">
         <v>102262009</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E47" s="6">
         <v>59351004</v>
@@ -3191,112 +3209,112 @@
         <v>48</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E48" s="6">
         <v>256443002</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E49" s="6">
         <v>2799001</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E50" s="6">
         <v>66925006</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E51" s="6">
         <v>735211005</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>2</v>
@@ -3304,126 +3322,126 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E52" s="6">
         <v>88818001</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E53" s="6">
         <v>735045008</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E54" s="6">
         <v>57126000</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="E55" s="6">
-        <v>420111002</v>
+        <v>455</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>50</v>
+        <v>466</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E56" s="6">
         <v>289122001</v>
@@ -3438,27 +3456,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E57" s="6">
         <v>227389000</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>2</v>
@@ -3466,71 +3484,71 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E58" s="6">
         <v>421133009</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E59" s="6">
         <v>227395004</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E60" s="6">
         <v>43735007</v>
@@ -3539,76 +3557,76 @@
         <v>36</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E61" s="6">
         <v>227374009</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E62" s="6">
         <v>419604006</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E63" s="6">
         <v>115589000</v>
@@ -3623,209 +3641,209 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E64" s="6">
         <v>63766005</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E65" s="6">
         <v>256354006</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E66" s="6">
         <v>3829006</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E67" s="6">
         <v>227425007</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E68" s="6">
         <v>227444000</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E69" s="6">
         <v>102259006</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E70" s="6">
         <v>227400003</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E71" s="6">
         <v>430503006</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>2</v>
@@ -3833,16 +3851,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E72" s="6">
         <v>422304003</v>
@@ -3851,238 +3869,238 @@
         <v>25</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E73" s="6">
         <v>264331002</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E74" s="6">
         <v>256355007</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E75" s="6">
         <v>260176001</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E76" s="6">
         <v>412161004</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E77" s="6">
         <v>736162008</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E78" s="6">
         <v>736030007</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E79" s="6">
         <v>42416001</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E80" s="6">
         <v>256306003</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E81" s="6">
         <v>261243003</v>
@@ -4091,24 +4109,24 @@
         <v>46</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E82" s="6">
         <v>111088007</v>
@@ -4117,62 +4135,62 @@
         <v>28</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E83" s="6">
         <v>47703008</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E84" s="6">
         <v>227313005</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>2</v>
@@ -4180,124 +4198,124 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E85" s="6">
         <v>227430006</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E86" s="6">
         <v>735340006</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E87" s="6">
         <v>735006003</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E88" s="6">
         <v>735215001</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E89" s="6">
         <v>14402002</v>
@@ -4306,192 +4324,192 @@
         <v>39</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E90" s="6">
         <v>260179008</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E91" s="6">
         <v>80237000</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E92" s="6">
         <v>735029006</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E93" s="6">
         <v>256504004</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E94" s="6">
-        <v>408099007</v>
+        <v>27065002</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>362</v>
+        <v>468</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E95" s="6">
         <v>419420009</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E96" s="6">
         <v>260177005</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>2</v>
@@ -4499,149 +4517,149 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E97" s="6">
         <v>77188000</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E98" s="6">
         <v>412357001</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E99" s="6">
         <v>412061001</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E100" s="6">
         <v>102261002</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E101" s="6">
         <v>51905005</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E102" s="6">
         <v>33396006</v>
@@ -4650,189 +4668,189 @@
         <v>19</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E103" s="6">
         <v>256352005</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E104" s="6">
         <v>735046009</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E105" s="6">
         <v>12510000</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E106" s="6">
         <v>735341005</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E107" s="6">
         <v>119417004</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E108" s="6">
         <v>736031006</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E109" s="6">
         <v>2309006</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>2</v>
@@ -4840,16 +4858,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E110" s="6">
         <v>74964007</v>
@@ -4864,76 +4882,76 @@
         <v>6</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E111" s="6">
         <v>414285001</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E112" s="6">
         <v>227408005</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E113" s="6">
         <v>255667006</v>
@@ -4942,33 +4960,33 @@
         <v>29</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E114" s="6">
         <v>735971005</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>2</v>
@@ -4976,45 +4994,45 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E115" s="6">
         <v>90580008</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E116" s="6">
         <v>276310004</v>
@@ -5023,28 +5041,28 @@
         <v>15</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E117" s="6">
         <v>260154005</v>
@@ -5053,24 +5071,24 @@
         <v>21</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E118" s="6">
         <v>256417003</v>
@@ -5079,50 +5097,50 @@
         <v>26</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E119" s="6">
         <v>412153009</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I119" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E120" s="6">
         <v>260152009</v>
@@ -5137,96 +5155,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E121" s="6">
         <v>260153004</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E122" s="6">
         <v>256435007</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E123" s="6">
         <v>410853002</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E124" s="6">
         <v>418785009</v>
@@ -5235,24 +5253,24 @@
         <v>30</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E125" s="6">
         <v>91598004</v>
@@ -5261,206 +5279,206 @@
         <v>45</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E126" s="6">
         <v>735049002</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E127" s="6">
         <v>59545008</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I127" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E128" s="6">
         <v>116549003</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E129" s="6">
         <v>412066006</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E130" s="6">
         <v>227511008</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E131" s="6">
         <v>227512001</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E132" s="6">
         <v>387398009</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E133" s="6">
         <v>256259004</v>
@@ -5469,24 +5487,24 @@
         <v>31</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E134" s="6">
         <v>256277009</v>
@@ -5495,267 +5513,267 @@
         <v>24</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E135" s="6">
         <v>735979007</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E136" s="6">
         <v>226934003</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E137" s="6">
         <v>41967008</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E138" s="6">
         <v>264295007</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E139" s="6">
         <v>303300008</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I139" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E140" s="6">
         <v>102264005</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E141" s="6">
         <v>256305004</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E142" s="6">
         <v>31006001</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E143" s="6">
         <v>412156001</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E144" s="6">
         <v>264337003</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>2</v>
@@ -5763,45 +5781,45 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E145" s="6">
-        <v>735006003</v>
+        <v>38946001</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>469</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E146" s="6">
         <v>51420009</v>
@@ -5810,102 +5828,102 @@
         <v>34</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E147" s="6">
         <v>767406000</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E148" s="6">
         <v>415710007</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E149" s="6">
         <v>412145001</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E150" s="6">
         <v>61789006</v>
@@ -5920,44 +5938,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E151" s="6">
         <v>734881000</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E152" s="6">
         <v>11894001</v>
@@ -5966,50 +5984,50 @@
         <v>18</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E153" s="6">
         <v>412071004</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I153" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E154" s="6">
         <v>303314008</v>
@@ -6018,24 +6036,24 @@
         <v>33</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E155" s="6">
         <v>256440004</v>
@@ -6044,14 +6062,20 @@
         <v>38</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:J3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:J155" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="5 - Nenhum mapeamento é possível. Não foi encontrado no alvo um conceito com algum grau de equivalência."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:L155">
     <sortCondition ref="C4:C155"/>
   </sortState>
@@ -6081,4 +6105,109 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5ECD1F8-2B9D-C347-9AC8-762B8811C9BC}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>141</v>
+      </c>
+      <c r="D4" s="13">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
@@ -8,21 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F6099-D724-D046-B6E8-6DC4EB061302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB313EFA-3F09-0D46-9C31-CDE2314D8820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Equivalências" sheetId="2" r:id="rId1"/>
-    <sheet name="alergenos-cbara" sheetId="1" r:id="rId2"/>
-    <sheet name="Totais" sheetId="3" r:id="rId3"/>
+    <sheet name="alergenos-cbara" sheetId="1" r:id="rId1"/>
+    <sheet name="Totais" sheetId="3" r:id="rId2"/>
+    <sheet name="Equivalências" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'alergenos-cbara'!$B$3:$J$155</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">'alergenos-cbara'!$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'alergenos-cbara'!$B$3:$J$155</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'alergenos-cbara'!$I$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1642,19 +1639,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Opções"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1919,49 +1903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25:G145"/>
     </sheetView>
   </sheetViews>
@@ -6079,27 +6025,22 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:L155">
     <sortCondition ref="C4:C155"/>
   </sortState>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1..1,1..*,*..1,*..*"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Equivalências!$A$1:$G$1</xm:f>
           </x14:formula1>
           <xm:sqref>I4:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>'/Users/beatrizdefarialeao/Library/Containers/com.microsoft.Excel/Data/Documents/Users\beatrizdefarialeao\Library\Containers\com.microsoft.Excel\Data\Documents\C:\Users\moaassis\Documents\HSL-IPS\Entregaveis\Mapeamentos\Templates\ConceptMap\BRImunobiológico\[Mapping BRImunobiológico.xlsx]Opções'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6107,11 +6048,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5ECD1F8-2B9D-C347-9AC8-762B8811C9BC}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D8"/>
     </sheetView>
   </sheetViews>
@@ -6210,4 +6151,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/bralergenoscbara-sct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Alergias/ConceptMapsAlergia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB313EFA-3F09-0D46-9C31-CDE2314D8820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C90CAFE-CE75-894C-B404-CB33EAD952F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="3480" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alergenos-cbara" sheetId="1" r:id="rId1"/>
@@ -1904,11 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:G145"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1990,7 +1989,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>452</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>452</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>452</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>452</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>452</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>452</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>452</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>452</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>452</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>452</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>452</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>452</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>452</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>452</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>452</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>452</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>452</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>452</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>452</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>452</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>452</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>452</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>452</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>452</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>452</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>452</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>452</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>452</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>452</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>452</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>452</v>
       </c>
@@ -2901,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>452</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>452</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>452</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>452</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>452</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>452</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>452</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>452</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>452</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>452</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>452</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>452</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>452</v>
       </c>
@@ -3240,7 +3239,7 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>452</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>452</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>452</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>452</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>452</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>452</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>452</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>452</v>
       </c>
@@ -3509,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>452</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>452</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>452</v>
       </c>
@@ -3587,7 +3586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>452</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>452</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>452</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>452</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>452</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>452</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>452</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>452</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>452</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>452</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>452</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>452</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>452</v>
       </c>
@@ -3954,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>452</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>452</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>452</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>452</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>452</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>452</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>452</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>452</v>
       </c>
@@ -4198,7 +4197,7 @@
       </c>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>452</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>452</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>452</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>452</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>452</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>452</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>452</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>452</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>452</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>452</v>
       </c>
@@ -4490,7 +4489,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>452</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>452</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>452</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>452</v>
       </c>
@@ -4594,7 +4593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>452</v>
       </c>
@@ -4620,7 +4619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>452</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>452</v>
       </c>
@@ -4672,7 +4671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>452</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>452</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>452</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>452</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>452</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>452</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>452</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>452</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>452</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>452</v>
       </c>
@@ -4997,7 +4996,7 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>452</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>452</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>452</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>452</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>452</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>452</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>452</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>452</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>452</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>452</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>452</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>452</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>452</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>452</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>452</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>452</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>452</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>452</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>452</v>
       </c>
@@ -5491,7 +5490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>452</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>452</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>452</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>452</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>452</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>452</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>452</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>452</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>452</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>452</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>452</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>452</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>452</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>452</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>452</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>452</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>452</v>
       </c>
@@ -5962,7 +5961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>452</v>
       </c>
@@ -5988,7 +5987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>452</v>
       </c>
@@ -6015,13 +6014,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:J155" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="5 - Nenhum mapeamento é possível. Não foi encontrado no alvo um conceito com algum grau de equivalência."/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:J155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:L155">
     <sortCondition ref="C4:C155"/>
   </sortState>
@@ -6052,8 +6045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5ECD1F8-2B9D-C347-9AC8-762B8811C9BC}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
